--- a/biology/Botanique/Billbergia_pyramidalis/Billbergia_pyramidalis.xlsx
+++ b/biology/Botanique/Billbergia_pyramidalis/Billbergia_pyramidalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Billbergia pyramidalis est une espèce de plantes à fleurs de la famille des Bromeliaceae qui se rencontre des Caraïbes à l'Amérique du Sud.
 </t>
@@ -511,50 +523,40 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Billbergia andegavensis André[1] ;
-Billbergia atrorosea Drapiez[1] ;
-Billbergia bicolor Lodd. [non-légitime][1] ;
-Billbergia croyana De Jonghe ex Lem.[1] ;
-Billbergia fasciata var. splendens Beer[1] ;
-Billbergia fastuosa (C.Morren) Beer[1] ;
-Billbergia lemoinei André[1] ;
-Billbergia loddigesii Steud.[1] ;
-Billbergia longifolia K.Koch &amp; C.D.Bouché[1] ;
-Billbergia miniatorosea Lem.[1] ;
-Billbergia paxtonii Beer[1] ;
-Billbergia punicea Beer[1] ;
-Billbergia schultesiana Baker[1] ;
-Billbergia setosa Baker [Invalid][1] ;
-Billbergia speciosa Carrière[1] ;
-Billbergia splendida Lem.[1] ;
-Billbergia thyrsoidea Mart. ex Schult. &amp; Schult.f.[1] ;
-Billbergia thyrsoidea var. fastuosa E.Morren[1] ;
-Billbergia thyrsoidea var. longifolia Baker[1] ;
-Billbergia thyrsoidea var. mibiato-rosea (Lem.) E. Morren[1] ;
-Billbergia thyrsoidea var. miniatorosea (Lem.) E.Morren[1] ;
-Billbergia thyrsoidea var. splendida (Lem.) E.Morren[1] ;
-Billbergia thyrsoidea var. zonata de Vriese[1] ;
-Billbergia thyrsoides'' De Jonghe[1] ;
-Bromelia nudicaulis Rchb.[1] ;
-Bromelia pyramidalis Sims[1] ;
-Jonghea splendida Lem. [non-valide][1] ;
-Pitcairnia fastuosa C.Morren[1] ;
-Tillandsia farinosa Schult. &amp; Schult.f.[1] ;
-Synonymie taxonomique
-Billbergia pyramidalis var. bicolor Lindl.[1] ;
-Billbergia pyramidalis var. concolor L.B.Sm.[1] ;
-Billbergia pyramidalis var. croyana E.Morren[1] ;
-Billbergia pyramidalis var. farinosa E.Morren[1] ;
-Billbergia pyramidalis var. lutea Leme &amp; W.Weber[1] ;
-Billbergia pyramidalis var. pyramidalis[1] ;
-Billbergia pyramidalis var. striata M.B.Foster[1] ;
-Billbergia pyramidalis var. vernicosa E.Pereira[1] ;
-Billbergia pyramidalis var. zonata (de Vriese) E.Morren[1] ;
-			Billbergia pyramidalis var. concolor
-			Billbergia pyramidalis var. striata
+Billbergia andegavensis André ;
+Billbergia atrorosea Drapiez ;
+Billbergia bicolor Lodd. [non-légitime] ;
+Billbergia croyana De Jonghe ex Lem. ;
+Billbergia fasciata var. splendens Beer ;
+Billbergia fastuosa (C.Morren) Beer ;
+Billbergia lemoinei André ;
+Billbergia loddigesii Steud. ;
+Billbergia longifolia K.Koch &amp; C.D.Bouché ;
+Billbergia miniatorosea Lem. ;
+Billbergia paxtonii Beer ;
+Billbergia punicea Beer ;
+Billbergia schultesiana Baker ;
+Billbergia setosa Baker [Invalid] ;
+Billbergia speciosa Carrière ;
+Billbergia splendida Lem. ;
+Billbergia thyrsoidea Mart. ex Schult. &amp; Schult.f. ;
+Billbergia thyrsoidea var. fastuosa E.Morren ;
+Billbergia thyrsoidea var. longifolia Baker ;
+Billbergia thyrsoidea var. mibiato-rosea (Lem.) E. Morren ;
+Billbergia thyrsoidea var. miniatorosea (Lem.) E.Morren ;
+Billbergia thyrsoidea var. splendida (Lem.) E.Morren ;
+Billbergia thyrsoidea var. zonata de Vriese ;
+Billbergia thyrsoides'' De Jonghe ;
+Bromelia nudicaulis Rchb. ;
+Bromelia pyramidalis Sims ;
+Jonghea splendida Lem. [non-valide] ;
+Pitcairnia fastuosa C.Morren ;
+Tillandsia farinosa Schult. &amp; Schult.f. ;
 </t>
         </is>
       </c>
@@ -580,12 +582,28 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Synonymes</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce se rencontre à Cuba, en Guyane, au Venezuela et au Brésil[2].
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Billbergia pyramidalis var. bicolor Lindl. ;
+Billbergia pyramidalis var. concolor L.B.Sm. ;
+Billbergia pyramidalis var. croyana E.Morren ;
+Billbergia pyramidalis var. farinosa E.Morren ;
+Billbergia pyramidalis var. lutea Leme &amp; W.Weber ;
+Billbergia pyramidalis var. pyramidalis ;
+Billbergia pyramidalis var. striata M.B.Foster ;
+Billbergia pyramidalis var. vernicosa E.Pereira ;
+Billbergia pyramidalis var. zonata (de Vriese) E.Morren ;
+			Billbergia pyramidalis var. concolor
+			Billbergia pyramidalis var. striata
 </t>
         </is>
       </c>
@@ -611,12 +629,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre à Cuba, en Guyane, au Venezuela et au Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Billbergia_pyramidalis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Billbergia_pyramidalis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est épiphyte[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est épiphyte.
 </t>
         </is>
       </c>
